--- a/1_Data Cleaning/distribution of immune receptors.xlsx
+++ b/1_Data Cleaning/distribution of immune receptors.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">all_a_b_g_d_NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Act. Tγδ</t>
+    <t xml:space="preserve">Act. Tgd</t>
   </si>
   <si>
     <t xml:space="preserve">Act. plasma IGHA+</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Mem B cells</t>
   </si>
   <si>
-    <t xml:space="preserve">NK/Tγδ</t>
+    <t xml:space="preserve">NK/Tgd</t>
   </si>
   <si>
     <t xml:space="preserve">Plasma IGHG+</t>
@@ -158,6 +158,12 @@
     <t xml:space="preserve">Tfh</t>
   </si>
   <si>
+    <t xml:space="preserve">Tgd CD8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tgd INSIG1+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Th17</t>
   </si>
   <si>
@@ -165,12 +171,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trm IEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tγδ CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tγδ INSIG1+</t>
   </si>
   <si>
     <t xml:space="preserve">nIEL</t>
@@ -2349,67 +2349,67 @@
         <v>48</v>
       </c>
       <c r="B28" t="n">
-        <v>15640</v>
+        <v>12265</v>
       </c>
       <c r="C28" t="n">
-        <v>5151</v>
+        <v>2910</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>684</v>
       </c>
       <c r="F28" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G28" t="n">
-        <v>1481</v>
+        <v>644</v>
       </c>
       <c r="H28" t="n">
-        <v>3487</v>
+        <v>1287</v>
       </c>
       <c r="I28" t="n">
-        <v>337</v>
+        <v>788</v>
       </c>
       <c r="J28" t="n">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="K28" t="n">
-        <v>4013</v>
+        <v>1210</v>
       </c>
       <c r="L28" t="n">
-        <v>214</v>
+        <v>499</v>
       </c>
       <c r="M28" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N28" t="n">
-        <v>578</v>
+        <v>922</v>
       </c>
       <c r="O28" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="P28" t="n">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="Q28" t="n">
-        <v>1063</v>
+        <v>1511</v>
       </c>
       <c r="R28" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="U28" t="n">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="V28" t="n">
-        <v>4194</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="29">
@@ -2417,67 +2417,67 @@
         <v>49</v>
       </c>
       <c r="B29" t="n">
-        <v>4891</v>
+        <v>1804</v>
       </c>
       <c r="C29" t="n">
-        <v>2211</v>
+        <v>333</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>711</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="G29" t="n">
-        <v>388</v>
+        <v>26</v>
       </c>
       <c r="H29" t="n">
-        <v>1136</v>
+        <v>102</v>
       </c>
       <c r="I29" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>2043</v>
+        <v>120</v>
       </c>
       <c r="L29" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="O29" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="Q29" t="n">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="R29" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="U29" t="n">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="V29" t="n">
-        <v>1033</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -2485,67 +2485,67 @@
         <v>50</v>
       </c>
       <c r="B30" t="n">
-        <v>10961</v>
+        <v>15640</v>
       </c>
       <c r="C30" t="n">
-        <v>2853</v>
+        <v>5151</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1259</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>834</v>
+        <v>92</v>
       </c>
       <c r="G30" t="n">
-        <v>500</v>
+        <v>1481</v>
       </c>
       <c r="H30" t="n">
-        <v>993</v>
+        <v>3487</v>
       </c>
       <c r="I30" t="n">
-        <v>799</v>
+        <v>337</v>
       </c>
       <c r="J30" t="n">
-        <v>353</v>
+        <v>29</v>
       </c>
       <c r="K30" t="n">
-        <v>1060</v>
+        <v>4013</v>
       </c>
       <c r="L30" t="n">
-        <v>482</v>
+        <v>214</v>
       </c>
       <c r="M30" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>883</v>
+        <v>578</v>
       </c>
       <c r="O30" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="P30" t="n">
-        <v>828</v>
+        <v>12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1749</v>
+        <v>1063</v>
       </c>
       <c r="R30" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="S30" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="U30" t="n">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="V30" t="n">
-        <v>2518</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="31">
@@ -2553,67 +2553,67 @@
         <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>12265</v>
+        <v>4891</v>
       </c>
       <c r="C31" t="n">
-        <v>2910</v>
+        <v>2211</v>
       </c>
       <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>684</v>
-      </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>644</v>
+        <v>388</v>
       </c>
       <c r="H31" t="n">
-        <v>1287</v>
+        <v>1136</v>
       </c>
       <c r="I31" t="n">
-        <v>788</v>
+        <v>21</v>
       </c>
       <c r="J31" t="n">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>1210</v>
+        <v>2043</v>
       </c>
       <c r="L31" t="n">
-        <v>499</v>
+        <v>12</v>
       </c>
       <c r="M31" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>922</v>
+        <v>45</v>
       </c>
       <c r="O31" t="n">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="P31" t="n">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1511</v>
+        <v>121</v>
       </c>
       <c r="R31" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="S31" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="V31" t="n">
-        <v>4226</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="32">
@@ -2621,67 +2621,67 @@
         <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>1804</v>
+        <v>10961</v>
       </c>
       <c r="C32" t="n">
-        <v>333</v>
+        <v>2853</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>711</v>
+        <v>1259</v>
       </c>
       <c r="F32" t="n">
-        <v>104</v>
+        <v>834</v>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="H32" t="n">
-        <v>102</v>
+        <v>993</v>
       </c>
       <c r="I32" t="n">
-        <v>95</v>
+        <v>799</v>
       </c>
       <c r="J32" t="n">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="K32" t="n">
-        <v>120</v>
+        <v>1060</v>
       </c>
       <c r="L32" t="n">
-        <v>54</v>
+        <v>482</v>
       </c>
       <c r="M32" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="N32" t="n">
-        <v>137</v>
+        <v>883</v>
       </c>
       <c r="O32" t="n">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="P32" t="n">
-        <v>365</v>
+        <v>828</v>
       </c>
       <c r="Q32" t="n">
-        <v>233</v>
+        <v>1749</v>
       </c>
       <c r="R32" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="S32" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="T32" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U32" t="n">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="V32" t="n">
-        <v>179</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="33">

--- a/1_Data Cleaning/distribution of immune receptors.xlsx
+++ b/1_Data Cleaning/distribution of immune receptors.xlsx
@@ -1,190 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Esmaeil\CeliacProject\CeliacProject\1_Data Cleaning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D905FE9-F560-4853-B33C-AE722C18ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
-    <t xml:space="preserve">cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aberrant_ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aberrant_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_a_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_a_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_a_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_b_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_b_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_g_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_a_b_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_a_b_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_a_g_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only_b_g_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all_a_b_g_d_NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act. Tgd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act. plasma IGHA+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act. plasmablast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells BAFFR+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 FTH1+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 Trm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4-CD8-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4-CD8-IL10+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 Mem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 Trm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyt. IEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homing plasmablast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEL CCL4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEL GZMK+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILC1/ILC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILC2/ILTi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mature plasma IGHA+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mem B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK/Tgd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma IGHG+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolif. IEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T eff. IEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tfh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgd CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgd INSIG1+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tregs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trm IEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDC</t>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>total_cells</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Aberrant_ab</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>Aberrant_g</t>
+  </si>
+  <si>
+    <t>only_a</t>
+  </si>
+  <si>
+    <t>only_b</t>
+  </si>
+  <si>
+    <t>only_g</t>
+  </si>
+  <si>
+    <t>only_d</t>
+  </si>
+  <si>
+    <t>only_a_b</t>
+  </si>
+  <si>
+    <t>only_a_g</t>
+  </si>
+  <si>
+    <t>only_a_d</t>
+  </si>
+  <si>
+    <t>only_b_g</t>
+  </si>
+  <si>
+    <t>only_b_d</t>
+  </si>
+  <si>
+    <t>only_g_d</t>
+  </si>
+  <si>
+    <t>only_a_b_g</t>
+  </si>
+  <si>
+    <t>only_a_b_d</t>
+  </si>
+  <si>
+    <t>only_a_g_d</t>
+  </si>
+  <si>
+    <t>only_b_g_d</t>
+  </si>
+  <si>
+    <t>all_present</t>
+  </si>
+  <si>
+    <t>all_a_b_g_d_NA</t>
+  </si>
+  <si>
+    <t>Act. Tgd</t>
+  </si>
+  <si>
+    <t>Act. plasma IGHA+</t>
+  </si>
+  <si>
+    <t>Act. plasmablast</t>
+  </si>
+  <si>
+    <t>B cells BAFFR+</t>
+  </si>
+  <si>
+    <t>CD4 FTH1+</t>
+  </si>
+  <si>
+    <t>CD4 Trm</t>
+  </si>
+  <si>
+    <t>CD4-CD8-</t>
+  </si>
+  <si>
+    <t>CD4-CD8-IL10+</t>
+  </si>
+  <si>
+    <t>CD8 Mem</t>
+  </si>
+  <si>
+    <t>CD8 Trm</t>
+  </si>
+  <si>
+    <t>Cyt. IEL</t>
+  </si>
+  <si>
+    <t>Homing plasmablast</t>
+  </si>
+  <si>
+    <t>IEL CCL4+</t>
+  </si>
+  <si>
+    <t>IEL GZMK+</t>
+  </si>
+  <si>
+    <t>ILC1/ILC2</t>
+  </si>
+  <si>
+    <t>ILC2/ILTi</t>
+  </si>
+  <si>
+    <t>ILC3</t>
+  </si>
+  <si>
+    <t>Macrophages</t>
+  </si>
+  <si>
+    <t>Mast cells</t>
+  </si>
+  <si>
+    <t>Mature plasma IGHA+</t>
+  </si>
+  <si>
+    <t>Mem B cells</t>
+  </si>
+  <si>
+    <t>NK/Tgd</t>
+  </si>
+  <si>
+    <t>Plasma IGHG+</t>
+  </si>
+  <si>
+    <t>Prolif. IEL</t>
+  </si>
+  <si>
+    <t>T eff. IEL</t>
+  </si>
+  <si>
+    <t>Tfh</t>
+  </si>
+  <si>
+    <t>Tgd CD8+</t>
+  </si>
+  <si>
+    <t>Tgd INSIG1+</t>
+  </si>
+  <si>
+    <t>Th17</t>
+  </si>
+  <si>
+    <t>Tregs</t>
+  </si>
+  <si>
+    <t>Trm IEL</t>
+  </si>
+  <si>
+    <t>nIEL</t>
+  </si>
+  <si>
+    <t>pDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -220,6 +227,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -501,14 +517,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,2252 +597,2252 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2898</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>166</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>311</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>143</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>62</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>184</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>118</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>144</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>66</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>36</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>28</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>108</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>70</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>146</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>114</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>32</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>30</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>121</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>92</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>1547</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7366</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>7366</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1777</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>1777</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>141</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>141</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5985</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1117</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>16</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>656</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1651</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>182</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>11</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>915</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>62</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>197</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>12</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>8</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>180</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>15</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>6</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>12</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>2068</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>17377</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6517</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>22</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1602</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>3307</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>495</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>39</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>4874</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>339</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>24</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>711</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>63</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>16</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>1468</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>130</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>17</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>17</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>78</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>4197</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7318</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>673</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>959</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>28</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>845</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1134</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>810</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>14</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>866</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>447</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>799</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>16</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>752</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>5</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>12</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>1604</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>550</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>177</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>76</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>131</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>160</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>7</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>11</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>17</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>139</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>7635</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2057</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>66</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>95</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>651</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1345</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>544</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>66</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>1165</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>314</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>27</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>689</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>37</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>51</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>871</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>36</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>19</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>25</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>55</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>1740</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>6004</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3449</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>46</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>102</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>46</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>169</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>611</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>115</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>24</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1507</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>103</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>16</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>344</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>31</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>32</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>1636</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>86</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>20</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>51</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>303</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>956</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>6923</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3755</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>181</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>314</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>950</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>172</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>28</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>1817</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>155</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>538</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>31</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>109</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>1781</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>49</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>20</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>54</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>110</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>793</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>299</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>299</v>
       </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>3220</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>527</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>43</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>379</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>563</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>226</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>25</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>320</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>105</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>12</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>211</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>18</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>20</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>184</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>16</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>9</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>14</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>10</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>1108</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>11660</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3705</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>152</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>106</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>18</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>829</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1973</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>628</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>43</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>2100</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>503</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>996</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>39</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>48</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>1662</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>41</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>19</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>39</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>64</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>2668</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>8242</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>512</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>53</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>73</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>650</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>866</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>745</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>44</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>342</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>199</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>15</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>280</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>22</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>32</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>155</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>9</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>9</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>16</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>14</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>4844</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>128</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>77</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>13</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>53</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>8</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>21</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>2</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>650</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>36</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>8</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>16</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>82</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>17</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>14</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>26</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>9</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>5</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>3</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>10</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>1</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>4</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>1</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>460</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1588</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>495</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>1093</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>960</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>415</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>545</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3615</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>3615</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3084</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>3084</v>
       </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3990</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>452</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>195</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>14</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>164</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>365</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>206</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>173</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>206</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>51</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>15</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>131</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>27</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>129</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>216</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>11</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>18</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>47</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>28</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>2203</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1506</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>1506</v>
       </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2010</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1022</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>83</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>19</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>72</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>160</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>49</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>15</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>403</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>41</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>2</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>98</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>6</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>47</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>549</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>21</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>9</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>27</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>59</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>452</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>3021</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>711</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>576</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>8</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>221</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>800</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>33</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>10</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>1081</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>17</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>5</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>55</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>23</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>2</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>155</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>26</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>1</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26">
         <v>5</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26">
         <v>25</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26">
         <v>562</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>6537</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2948</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>14</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>33</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>525</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>1506</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>41</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>10</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>2611</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>42</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>14</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>131</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>33</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>7</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>289</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>60</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>2</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>5</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>19</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27">
         <v>1242</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>12265</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2910</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>684</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>43</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>644</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>1287</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>788</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>172</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>1210</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>499</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>43</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>922</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>71</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>365</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>1511</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>75</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>69</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>192</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>191</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28">
         <v>4226</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1804</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>333</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>711</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>104</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>26</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>102</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>95</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>82</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>120</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>54</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>6</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>137</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>37</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>365</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>233</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>11</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>42</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29">
         <v>200</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29">
         <v>115</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V29">
         <v>179</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>15640</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>5151</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>32</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>92</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1481</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>3487</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>337</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>29</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>4013</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>214</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>15</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>578</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>55</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>12</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>1063</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>92</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>5</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30">
         <v>15</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30">
         <v>50</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30">
         <v>4194</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>4891</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2211</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>13</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>388</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>1136</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>21</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>2043</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>12</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>4</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>45</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>18</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>1</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>121</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>41</v>
       </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>2</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31">
         <v>18</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31">
         <v>1033</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>10961</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2853</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>1259</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>834</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>500</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>993</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>799</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>353</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>1060</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>482</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>29</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>883</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>101</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>828</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>1749</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>35</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>109</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32">
         <v>300</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>222</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V32">
         <v>2518</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1320</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>447</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>69</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>8</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>105</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>100</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>91</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>16</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>154</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>89</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>118</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>8</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>33</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>245</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>21</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>11</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33">
         <v>25</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U33">
         <v>34</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V33">
         <v>265</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>145</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>69</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V34">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/1_Data Cleaning/distribution of immune receptors.xlsx
+++ b/1_Data Cleaning/distribution of immune receptors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Esmaeil\CeliacProject\CeliacProject\1_Data Cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D905FE9-F560-4853-B33C-AE722C18ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315BD5B-FD7B-4F52-8004-5316BD034111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,12 +521,12 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="22" max="22" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>70</v>
       </c>
       <c r="P2">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>114</v>
@@ -659,7 +659,7 @@
         <v>121</v>
       </c>
       <c r="U2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="V2">
         <v>1547</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>7366</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>1777</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>141</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="K6">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="L6">
         <v>62</v>
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>2068</v>
@@ -969,7 +969,7 @@
         <v>39</v>
       </c>
       <c r="K7">
-        <v>4874</v>
+        <v>4950</v>
       </c>
       <c r="L7">
         <v>339</v>
@@ -999,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="U7">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="V7">
         <v>4197</v>
@@ -1037,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="K8">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="L8">
         <v>447</v>
@@ -1067,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="U8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V8">
         <v>1604</v>
@@ -1173,7 +1173,7 @@
         <v>66</v>
       </c>
       <c r="K10">
-        <v>1165</v>
+        <v>1218</v>
       </c>
       <c r="L10">
         <v>314</v>
@@ -1203,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="U10">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="V10">
         <v>1740</v>
@@ -1241,7 +1241,7 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>1507</v>
+        <v>1801</v>
       </c>
       <c r="L11">
         <v>103</v>
@@ -1271,7 +1271,7 @@
         <v>51</v>
       </c>
       <c r="U11">
-        <v>303</v>
+        <v>9</v>
       </c>
       <c r="V11">
         <v>956</v>
@@ -1309,7 +1309,7 @@
         <v>28</v>
       </c>
       <c r="K12">
-        <v>1817</v>
+        <v>1926</v>
       </c>
       <c r="L12">
         <v>155</v>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
       <c r="U12">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>793</v>
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>299</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L14">
         <v>105</v>
@@ -1475,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>1108</v>
@@ -1513,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>2100</v>
+        <v>2161</v>
       </c>
       <c r="L15">
         <v>503</v>
@@ -1543,7 +1543,7 @@
         <v>39</v>
       </c>
       <c r="U15">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="V15">
         <v>2668</v>
@@ -1581,7 +1581,7 @@
         <v>44</v>
       </c>
       <c r="K16">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="L16">
         <v>199</v>
@@ -1611,7 +1611,7 @@
         <v>16</v>
       </c>
       <c r="U16">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="V16">
         <v>4844</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>16</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1093</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>545</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>3615</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>3084</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>173</v>
       </c>
       <c r="K23">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L23">
         <v>51</v>
@@ -2072,7 +2072,7 @@
         <v>27</v>
       </c>
       <c r="P23">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>216</v>
@@ -2087,7 +2087,7 @@
         <v>47</v>
       </c>
       <c r="U23">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>2203</v>
@@ -2155,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>1506</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2193,7 +2193,7 @@
         <v>15</v>
       </c>
       <c r="K25">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="L25">
         <v>41</v>
@@ -2223,7 +2223,7 @@
         <v>27</v>
       </c>
       <c r="U25">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="V25">
         <v>452</v>
@@ -2261,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>1081</v>
+        <v>1095</v>
       </c>
       <c r="L26">
         <v>17</v>
@@ -2291,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="U26">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="V26">
         <v>562</v>
@@ -2329,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>2611</v>
+        <v>2627</v>
       </c>
       <c r="L27">
         <v>42</v>
@@ -2359,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="U27">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="V27">
         <v>1242</v>
@@ -2397,7 +2397,7 @@
         <v>172</v>
       </c>
       <c r="K28">
-        <v>1210</v>
+        <v>1336</v>
       </c>
       <c r="L28">
         <v>499</v>
@@ -2412,7 +2412,7 @@
         <v>71</v>
       </c>
       <c r="P28">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="Q28">
         <v>1511</v>
@@ -2427,7 +2427,7 @@
         <v>192</v>
       </c>
       <c r="U28">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="V28">
         <v>4226</v>
@@ -2480,7 +2480,7 @@
         <v>37</v>
       </c>
       <c r="P29">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="Q29">
         <v>233</v>
@@ -2495,7 +2495,7 @@
         <v>200</v>
       </c>
       <c r="U29">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="V29">
         <v>179</v>
@@ -2533,7 +2533,7 @@
         <v>29</v>
       </c>
       <c r="K30">
-        <v>4013</v>
+        <v>4060</v>
       </c>
       <c r="L30">
         <v>214</v>
@@ -2563,7 +2563,7 @@
         <v>15</v>
       </c>
       <c r="U30">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="V30">
         <v>4194</v>
@@ -2601,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="K31">
-        <v>2043</v>
+        <v>2061</v>
       </c>
       <c r="L31">
         <v>12</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="U31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>1033</v>
@@ -2669,7 +2669,7 @@
         <v>353</v>
       </c>
       <c r="K32">
-        <v>1060</v>
+        <v>1239</v>
       </c>
       <c r="L32">
         <v>482</v>
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="P32">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="Q32">
         <v>1749</v>
@@ -2699,7 +2699,7 @@
         <v>300</v>
       </c>
       <c r="U32">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="V32">
         <v>2518</v>
@@ -2737,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="K33">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="L33">
         <v>89</v>
@@ -2767,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="U33">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>265</v>
@@ -2835,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/1_Data Cleaning/distribution of immune receptors.xlsx
+++ b/1_Data Cleaning/distribution of immune receptors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Esmaeil\CeliacProject\CeliacProject\1_Data Cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315BD5B-FD7B-4F52-8004-5316BD034111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2626FF26-33F6-4B3F-87C0-C96C3C4860FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD22"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
